--- a/samples/sample(online class).xlsx
+++ b/samples/sample(online class).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>8:50~9:40</t>
   </si>
@@ -194,73 +194,14 @@
     <t>버그, 문의사항 등은 20-017 김병권</t>
   </si>
   <si>
-    <t>key: 4</t>
-  </si>
-  <si>
-    <t>https://meet.google.com/hik-gzgc-waj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zoom.us/j/9985811690?pwd=bndRcXVCN0ZrM1dKcmtLREZXaURGdz09</t>
-  </si>
-  <si>
-    <t>https://us04web.zoom.us/j/5743141632?pwd=TkY3OW5ocFFOdUVwbmtSeXl1bGJIUT09</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zoom.us/j/3160100999?pwd=TXdjeEF1b01SdVRBWVM5MEI5VWt3dz09</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zoom.us/j/95387857445</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://us04web.zoom.us/j/970948925?pwd=RldtbDcyaTUxZnNSVHlmTklPTHBYZz09</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>형404</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐206</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>형204</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>예404</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>창702</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐106</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>예601</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐309</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐301</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>key: 45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,26 +225,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="함초롬돋움"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="함초롬돋움"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="11">
@@ -436,7 +362,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -511,8 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -817,9 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -856,28 +778,24 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="str">
-        <f>IF(ISBLANK(데이터!A6),"",데이터!A6)&amp;IF(OR(ISBLANK(데이터!A6), ISBLANK(데이터!D6)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D6),"",데이터!D6)&amp;IF(OR(ISBLANK(데이터!D6), ISBLANK(데이터!B6)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B6),"",데이터!B6)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A6, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D6, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B6, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>자료구조
-김호숙
-창702</v>
+김호숙</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>IF(ISBLANK(데이터!A2),"",데이터!A2)&amp;IF(OR(ISBLANK(데이터!A2), ISBLANK(데이터!D2)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D2),"",데이터!D2)&amp;IF(OR(ISBLANK(데이터!D2), ISBLANK(데이터!B2)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B2),"",데이터!B2)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A2, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D2, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B2, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>수학2
-정명주
-형404</v>
+정명주</v>
       </c>
       <c r="F2" s="4" t="str">
-        <f>IF(ISBLANK(데이터!A3),"",데이터!A3)&amp;IF(OR(ISBLANK(데이터!A3), ISBLANK(데이터!D3)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D3),"",데이터!D3)&amp;IF(OR(ISBLANK(데이터!D3), ISBLANK(데이터!B3)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B3),"",데이터!B3)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A3, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D3, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B3, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>생물학및실험2
-권창섭
-탐206</v>
+권창섭</v>
       </c>
       <c r="G2" s="5" t="str">
-        <f>IF(ISBLANK(데이터!A4),"",데이터!A4)&amp;IF(OR(ISBLANK(데이터!A4), ISBLANK(데이터!D4)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D4),"",데이터!D4)&amp;IF(OR(ISBLANK(데이터!D4), ISBLANK(데이터!B4)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B4),"",데이터!B4)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A4, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D4, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B4, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>한국사의이해
-강재순
-형204</v>
+강재순</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -886,7 +804,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="6" t="str">
         <f>IF(ISBLANK(데이터!E6),IF(ISBLANK(데이터!F6),"",HYPERLINK(데이터!F6, 데이터!F1)),HYPERLINK(데이터!E6, 데이터!E1))</f>
-        <v>Zoom</v>
+        <v/>
       </c>
       <c r="E3" s="7" t="str">
         <f>IF(ISBLANK(데이터!E2),IF(ISBLANK(데이터!F2),"",HYPERLINK(데이터!F2, 데이터!F1)),HYPERLINK(데이터!E2, 데이터!E1))</f>
@@ -898,7 +816,7 @@
       </c>
       <c r="G3" s="9" t="str">
         <f>IF(ISBLANK(데이터!E4),IF(ISBLANK(데이터!F4),"",HYPERLINK(데이터!F4, 데이터!F1)),HYPERLINK(데이터!E4, 데이터!E1))</f>
-        <v>Google Meet</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -910,28 +828,24 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="str">
-        <f>IF(ISBLANK(데이터!A2),"",데이터!A2)&amp;IF(OR(ISBLANK(데이터!A2), ISBLANK(데이터!D2)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D2),"",데이터!D2)&amp;IF(OR(ISBLANK(데이터!D2), ISBLANK(데이터!B2)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B2),"",데이터!B2)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A2, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D2, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B2, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>수학2
-정명주
-형404</v>
+정명주</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>IF(ISBLANK(데이터!A3),"",데이터!A3)&amp;IF(OR(ISBLANK(데이터!A3), ISBLANK(데이터!D3)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D3),"",데이터!D3)&amp;IF(OR(ISBLANK(데이터!D3), ISBLANK(데이터!B3)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B3),"",데이터!B3)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A3, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D3, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B3, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>생물학및실험2
-권창섭
-탐206</v>
+권창섭</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f>IF(ISBLANK(데이터!A4),"",데이터!A4)&amp;IF(OR(ISBLANK(데이터!A4), ISBLANK(데이터!D4)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D4),"",데이터!D4)&amp;IF(OR(ISBLANK(데이터!D4), ISBLANK(데이터!B4)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B4),"",데이터!B4)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A4, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D4, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B4, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>한국사의이해
-강재순
-형204</v>
+강재순</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>IF(ISBLANK(데이터!A6),"",데이터!A6)&amp;IF(OR(ISBLANK(데이터!A6), ISBLANK(데이터!D6)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D6),"",데이터!D6)&amp;IF(OR(ISBLANK(데이터!D6), ISBLANK(데이터!B6)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B6),"",데이터!B6)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A6, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D6, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B6, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>자료구조
-김호숙
-창702</v>
+김호숙</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -948,11 +862,11 @@
       </c>
       <c r="F5" s="9" t="str">
         <f>IF(ISBLANK(데이터!E4),IF(ISBLANK(데이터!F4),"",HYPERLINK(데이터!F4, 데이터!F1)),HYPERLINK(데이터!E4, 데이터!E1))</f>
-        <v>Google Meet</v>
+        <v/>
       </c>
       <c r="G5" s="6" t="str">
         <f>IF(ISBLANK(데이터!E6),IF(ISBLANK(데이터!F6),"",HYPERLINK(데이터!F6, 데이터!F1)),HYPERLINK(데이터!E6, 데이터!E1))</f>
-        <v>Zoom</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -963,24 +877,21 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>IF(ISBLANK(데이터!A2),"",데이터!A2)&amp;IF(OR(ISBLANK(데이터!A2), ISBLANK(데이터!D2)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D2),"",데이터!D2)&amp;IF(OR(ISBLANK(데이터!D2), ISBLANK(데이터!B2)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B2),"",데이터!B2)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A2, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D2, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B2, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>수학2
-정명주
-형404</v>
+정명주</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>IF(ISBLANK(데이터!A9),"",데이터!A9)&amp;IF(OR(ISBLANK(데이터!A9), ISBLANK(데이터!D9)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D9),"",데이터!D9)&amp;IF(OR(ISBLANK(데이터!D9), ISBLANK(데이터!B9)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B9),"",데이터!B9)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A9, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D9, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B9, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>영어2
-Kevin Anderson
-탐309</v>
+Kevin Anderson</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="11" t="str">
-        <f>IF(ISBLANK(데이터!A8),"",데이터!A8)&amp;IF(OR(ISBLANK(데이터!A8), ISBLANK(데이터!D8)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D8),"",데이터!D8)&amp;IF(OR(ISBLANK(데이터!D8), ISBLANK(데이터!B8)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B8),"",데이터!B8)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A8, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D8, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B8, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>체육2
-이종훈
-예601</v>
+이종훈</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -992,13 +903,13 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>IF(ISBLANK(데이터!E9),IF(ISBLANK(데이터!F9),"",HYPERLINK(데이터!F9, 데이터!F1)),HYPERLINK(데이터!E9, 데이터!E1))</f>
-        <v>Zoom</v>
+        <v/>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="13" t="str">
         <f>IF(ISBLANK(데이터!E8),IF(ISBLANK(데이터!F8),"",HYPERLINK(데이터!F8, 데이터!F1)),HYPERLINK(데이터!E8, 데이터!E1))</f>
-        <v>Zoom</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -1009,29 +920,25 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>IF(ISBLANK(데이터!A2),"",데이터!A2)&amp;IF(OR(ISBLANK(데이터!A2), ISBLANK(데이터!D2)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D2),"",데이터!D2)&amp;IF(OR(ISBLANK(데이터!D2), ISBLANK(데이터!B2)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B2),"",데이터!B2)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A2, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D2, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B2, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>수학2
-정명주
-형404</v>
+정명주</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="str">
-        <f>IF(ISBLANK(데이터!A6),"",데이터!A6)&amp;IF(OR(ISBLANK(데이터!A6), ISBLANK(데이터!D6)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D6),"",데이터!D6)&amp;IF(OR(ISBLANK(데이터!D6), ISBLANK(데이터!B6)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B6),"",데이터!B6)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A6, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D6, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B6, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>자료구조
-김호숙
-창702</v>
+김호숙</v>
       </c>
       <c r="F8" s="14" t="str">
-        <f>IF(ISBLANK(데이터!A7),"",데이터!A7)&amp;IF(OR(ISBLANK(데이터!A7), ISBLANK(데이터!D7)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D7),"",데이터!D7)&amp;IF(OR(ISBLANK(데이터!D7), ISBLANK(데이터!B7)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B7),"",데이터!B7)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A7, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D7, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B7, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>화학및실험2
-탁주환
-탐106</v>
+탁주환</v>
       </c>
       <c r="G8" s="15" t="str">
-        <f>IF(ISBLANK(데이터!A10),"",데이터!A10)&amp;IF(OR(ISBLANK(데이터!A10), ISBLANK(데이터!D10)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D10),"",데이터!D10)&amp;IF(OR(ISBLANK(데이터!D10), ISBLANK(데이터!B10)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B10),"",데이터!B10)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A10, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D10, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B10, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>물리학및실험2
-이정훈
-탐301</v>
+이정훈</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1044,14 +951,14 @@
       <c r="D9" s="1"/>
       <c r="E9" s="6" t="str">
         <f>IF(ISBLANK(데이터!E6),IF(ISBLANK(데이터!F6),"",HYPERLINK(데이터!F6, 데이터!F1)),HYPERLINK(데이터!E6, 데이터!E1))</f>
-        <v>Zoom</v>
+        <v/>
       </c>
       <c r="F9" s="16" t="str">
         <f>IF(ISBLANK(데이터!E7),IF(ISBLANK(데이터!F7),"",HYPERLINK(데이터!F7, 데이터!F1)),HYPERLINK(데이터!E7, 데이터!E1))</f>
-        <v>Zoom</v>
+        <v/>
       </c>
       <c r="G9" s="17" t="str">
-        <f>IF(ISBLANK(데이터!E10),IF(ISBLANK(데이터!F10),"",HYPERLINK(데이터!F10, 데이터!F11)),HYPERLINK(데이터!E10, 데이터!E11))</f>
+        <f>IF(ISBLANK(데이터!E10),IF(ISBLANK(데이터!F10),"",HYPERLINK(데이터!F10, 데이터!F1)),HYPERLINK(데이터!E10, 데이터!E1))</f>
         <v/>
       </c>
     </row>
@@ -1074,29 +981,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>IF(ISBLANK(데이터!A3),"",데이터!A3)&amp;IF(OR(ISBLANK(데이터!A3), ISBLANK(데이터!D3)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D3),"",데이터!D3)&amp;IF(OR(ISBLANK(데이터!D3), ISBLANK(데이터!B3)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B3),"",데이터!B3)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A3, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D3, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B3, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>생물학및실험2
-권창섭
-탐206</v>
+권창섭</v>
       </c>
       <c r="D11" s="15" t="str">
-        <f>IF(ISBLANK(데이터!A10),"",데이터!A10)&amp;IF(OR(ISBLANK(데이터!A10), ISBLANK(데이터!D10)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D10),"",데이터!D10)&amp;IF(OR(ISBLANK(데이터!D10), ISBLANK(데이터!B10)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B10),"",데이터!B10)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A10, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D10, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B10, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>물리학및실험2
-이정훈
-탐301</v>
+이정훈</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="str">
-        <f>IF(ISBLANK(데이터!A2),"",데이터!A2)&amp;IF(OR(ISBLANK(데이터!A2), ISBLANK(데이터!D2)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D2),"",데이터!D2)&amp;IF(OR(ISBLANK(데이터!D2), ISBLANK(데이터!B2)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B2),"",데이터!B2)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A2, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D2, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B2, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>수학2
-정명주
-형404</v>
+정명주</v>
       </c>
       <c r="G11" s="14" t="str">
-        <f>IF(ISBLANK(데이터!A7),"",데이터!A7)&amp;IF(OR(ISBLANK(데이터!A7), ISBLANK(데이터!D7)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D7),"",데이터!D7)&amp;IF(OR(ISBLANK(데이터!D7), ISBLANK(데이터!B7)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B7),"",데이터!B7)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A7, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D7, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B7, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>화학및실험2
-탁주환
-탐106</v>
+탁주환</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1107,7 +1010,7 @@
         <v/>
       </c>
       <c r="D12" s="17" t="str">
-        <f>IF(ISBLANK(데이터!E10),IF(ISBLANK(데이터!F10),"",HYPERLINK(데이터!F10, 데이터!F11)),HYPERLINK(데이터!E10, 데이터!E11))</f>
+        <f>IF(ISBLANK(데이터!E10),IF(ISBLANK(데이터!F10),"",HYPERLINK(데이터!F10, 데이터!F1)),HYPERLINK(데이터!E10, 데이터!E1))</f>
         <v/>
       </c>
       <c r="E12" s="1"/>
@@ -1117,7 +1020,7 @@
       </c>
       <c r="G12" s="16" t="str">
         <f>IF(ISBLANK(데이터!E7),IF(ISBLANK(데이터!F7),"",HYPERLINK(데이터!F7, 데이터!F1)),HYPERLINK(데이터!E7, 데이터!E1))</f>
-        <v>Zoom</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -1128,34 +1031,29 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="str">
-        <f>IF(ISBLANK(데이터!A4),"",데이터!A4)&amp;IF(OR(ISBLANK(데이터!A4), ISBLANK(데이터!D4)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D4),"",데이터!D4)&amp;IF(OR(ISBLANK(데이터!D4), ISBLANK(데이터!B4)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B4),"",데이터!B4)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A4, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D4, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B4, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>한국사의이해
-강재순
-형204</v>
+강재순</v>
       </c>
       <c r="D13" s="18" t="str">
-        <f>IF(ISBLANK(데이터!A5),"",데이터!A5)&amp;IF(OR(ISBLANK(데이터!A5), ISBLANK(데이터!D5)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D5),"",데이터!D5)&amp;IF(OR(ISBLANK(데이터!D5), ISBLANK(데이터!B5)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B5),"",데이터!B5)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A5, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D5, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B5, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>미술
-박주영
-예404</v>
+박주영</v>
       </c>
       <c r="E13" s="10" t="str">
-        <f>IF(ISBLANK(데이터!A9),"",데이터!A9)&amp;IF(OR(ISBLANK(데이터!A9), ISBLANK(데이터!D9)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D9),"",데이터!D9)&amp;IF(OR(ISBLANK(데이터!D9), ISBLANK(데이터!B9)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B9),"",데이터!B9)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A9, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D9, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B9, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>영어2
-Kevin Anderson
-탐309</v>
+Kevin Anderson</v>
       </c>
       <c r="F13" s="10" t="str">
-        <f>IF(ISBLANK(데이터!A9),"",데이터!A9)&amp;IF(OR(ISBLANK(데이터!A9), ISBLANK(데이터!D9)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D9),"",데이터!D9)&amp;IF(OR(ISBLANK(데이터!D9), ISBLANK(데이터!B9)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B9),"",데이터!B9)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A9, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D9, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B9, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>영어2
-Kevin Anderson
-탐309</v>
+Kevin Anderson</v>
       </c>
       <c r="G13" s="14" t="str">
-        <f>IF(ISBLANK(데이터!A7),"",데이터!A7)&amp;IF(OR(ISBLANK(데이터!A7), ISBLANK(데이터!D7)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D7),"",데이터!D7)&amp;IF(OR(ISBLANK(데이터!D7), ISBLANK(데이터!B7)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B7),"",데이터!B7)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A7, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D7, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B7, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>화학및실험2
-탁주환
-탐106</v>
+탁주환</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1163,23 +1061,23 @@
       <c r="B14" s="25"/>
       <c r="C14" s="9" t="str">
         <f>IF(ISBLANK(데이터!E4),IF(ISBLANK(데이터!F4),"",HYPERLINK(데이터!F4, 데이터!F1)),HYPERLINK(데이터!E4, 데이터!E1))</f>
-        <v>Google Meet</v>
+        <v/>
       </c>
       <c r="D14" s="19" t="str">
         <f>IF(ISBLANK(데이터!E5),IF(ISBLANK(데이터!F5),"",HYPERLINK(데이터!F5, 데이터!F1)),HYPERLINK(데이터!E5, 데이터!E1))</f>
-        <v>Zoom</v>
+        <v/>
       </c>
       <c r="E14" s="12" t="str">
         <f>IF(ISBLANK(데이터!E9),IF(ISBLANK(데이터!F9),"",HYPERLINK(데이터!F9, 데이터!F1)),HYPERLINK(데이터!E9, 데이터!E1))</f>
-        <v>Zoom</v>
+        <v/>
       </c>
       <c r="F14" s="12" t="str">
         <f>IF(ISBLANK(데이터!E9),IF(ISBLANK(데이터!F9),"",HYPERLINK(데이터!F9, 데이터!F1)),HYPERLINK(데이터!E9, 데이터!E1))</f>
-        <v>Zoom</v>
+        <v/>
       </c>
       <c r="G14" s="16" t="str">
         <f>IF(ISBLANK(데이터!E7),IF(ISBLANK(데이터!F7),"",HYPERLINK(데이터!F7, 데이터!F1)),HYPERLINK(데이터!E7, 데이터!E1))</f>
-        <v>Zoom</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -1190,16 +1088,14 @@
         <v>13</v>
       </c>
       <c r="C15" s="15" t="str">
-        <f>IF(ISBLANK(데이터!A10),"",데이터!A10)&amp;IF(OR(ISBLANK(데이터!A10), ISBLANK(데이터!D10)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D10),"",데이터!D10)&amp;IF(OR(ISBLANK(데이터!D10), ISBLANK(데이터!B10)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B10),"",데이터!B10)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A10, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D10, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B10, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>물리학및실험2
-이정훈
-탐301</v>
+이정훈</v>
       </c>
       <c r="D15" s="18" t="str">
-        <f>IF(ISBLANK(데이터!A5),"",데이터!A5)&amp;IF(OR(ISBLANK(데이터!A5), ISBLANK(데이터!D5)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D5),"",데이터!D5)&amp;IF(OR(ISBLANK(데이터!D5), ISBLANK(데이터!B5)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B5),"",데이터!B5)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A5, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D5, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B5, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>미술
-박주영
-예404</v>
+박주영</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1209,12 +1105,12 @@
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="17" t="str">
-        <f>IF(ISBLANK(데이터!E10),IF(ISBLANK(데이터!F10),"",HYPERLINK(데이터!F10, 데이터!F11)),HYPERLINK(데이터!E10, 데이터!E11))</f>
+        <f>IF(ISBLANK(데이터!E10),IF(ISBLANK(데이터!F10),"",HYPERLINK(데이터!F10, 데이터!F1)),HYPERLINK(데이터!E10, 데이터!E1))</f>
         <v/>
       </c>
       <c r="D16" s="19" t="str">
         <f>IF(ISBLANK(데이터!E5),IF(ISBLANK(데이터!F5),"",HYPERLINK(데이터!F5, 데이터!F1)),HYPERLINK(데이터!E5, 데이터!E1))</f>
-        <v>Zoom</v>
+        <v/>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1228,10 +1124,9 @@
         <v>15</v>
       </c>
       <c r="C17" s="15" t="str">
-        <f>IF(ISBLANK(데이터!A10),"",데이터!A10)&amp;IF(OR(ISBLANK(데이터!A10), ISBLANK(데이터!D10)),"",CHAR(10))&amp;IF(ISBLANK(데이터!D10),"",데이터!D10)&amp;IF(OR(ISBLANK(데이터!D10), ISBLANK(데이터!B10)),"",CHAR(10))&amp;IF(ISBLANK(데이터!B10),"",데이터!B10)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(TRIM(SUBSTITUTE(데이터!A10, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!D10, " ", "$")&amp;" "&amp;SUBSTITUTE(데이터!B10, " ", "$")&amp;" "), " ", CHAR(10)), "$", " ")</f>
         <v>물리학및실험2
-이정훈
-탐301</v>
+이정훈</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1242,7 +1137,7 @@
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="17" t="str">
-        <f>IF(ISBLANK(데이터!E10),IF(ISBLANK(데이터!F10),"",HYPERLINK(데이터!F10, 데이터!F11)),HYPERLINK(데이터!E10, 데이터!E11))</f>
+        <f>IF(ISBLANK(데이터!E10),IF(ISBLANK(데이터!F10),"",HYPERLINK(데이터!F10, 데이터!F1)),HYPERLINK(데이터!E10, 데이터!E1))</f>
         <v/>
       </c>
       <c r="D18" s="1"/>
@@ -1354,8 +1249,9 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1363,9 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1396,157 +1290,100 @@
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>66</v>
-      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>67</v>
-      </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>68</v>
-      </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>70</v>
-      </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>71</v>
-      </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>72</v>
-      </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>73</v>
-      </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>74</v>
-      </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G11" s="20" t="s">
@@ -1593,17 +1430,10 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H15" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="E9" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>